--- a/Unity/Assets/Config/Excel/SubTaskConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SubTaskConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23310" windowHeight="10665" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="SubTaskProto" sheetId="6" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>任务1001描述</t>
   </si>
   <si>
-    <t>SubTaskType_Gather</t>
+    <t>采集</t>
   </si>
   <si>
     <t>任务10002</t>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/Unity/Assets/Config/Excel/SubTaskConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SubTaskConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>#Desc</t>
+    <t>Desc</t>
   </si>
   <si>
     <t>SubTaskType</t>
@@ -50,7 +50,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
+    <t>text</t>
   </si>
   <si>
     <t>##group</t>
@@ -74,157 +74,157 @@
     <t>子任务类型</t>
   </si>
   <si>
-    <t>任务10001</t>
-  </si>
-  <si>
-    <t>任务1001描述</t>
+    <t>subtaskname_10001</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10001</t>
   </si>
   <si>
     <t>采集</t>
   </si>
   <si>
-    <t>任务10002</t>
-  </si>
-  <si>
-    <t>任务1002描述</t>
-  </si>
-  <si>
-    <t>任务10003</t>
-  </si>
-  <si>
-    <t>任务1003描述</t>
-  </si>
-  <si>
-    <t>任务10004</t>
-  </si>
-  <si>
-    <t>任务1004描述</t>
-  </si>
-  <si>
-    <t>任务10005</t>
-  </si>
-  <si>
-    <t>任务1005描述</t>
-  </si>
-  <si>
-    <t>任务10006</t>
-  </si>
-  <si>
-    <t>任务1006描述</t>
-  </si>
-  <si>
-    <t>任务10007</t>
-  </si>
-  <si>
-    <t>任务1007描述</t>
-  </si>
-  <si>
-    <t>任务10008</t>
-  </si>
-  <si>
-    <t>任务1008描述</t>
-  </si>
-  <si>
-    <t>任务10009</t>
-  </si>
-  <si>
-    <t>任务1009描述</t>
-  </si>
-  <si>
-    <t>任务10010</t>
-  </si>
-  <si>
-    <t>任务1010描述</t>
-  </si>
-  <si>
-    <t>任务10011</t>
-  </si>
-  <si>
-    <t>任务1011描述</t>
-  </si>
-  <si>
-    <t>任务10012</t>
-  </si>
-  <si>
-    <t>任务1012描述</t>
-  </si>
-  <si>
-    <t>任务10013</t>
-  </si>
-  <si>
-    <t>任务1013描述</t>
-  </si>
-  <si>
-    <t>任务10014</t>
-  </si>
-  <si>
-    <t>任务1014描述</t>
-  </si>
-  <si>
-    <t>任务10015</t>
-  </si>
-  <si>
-    <t>任务1015描述</t>
-  </si>
-  <si>
-    <t>任务10016</t>
-  </si>
-  <si>
-    <t>任务1016描述</t>
-  </si>
-  <si>
-    <t>任务10017</t>
-  </si>
-  <si>
-    <t>任务1017描述</t>
-  </si>
-  <si>
-    <t>任务10018</t>
-  </si>
-  <si>
-    <t>任务1018描述</t>
-  </si>
-  <si>
-    <t>任务10019</t>
-  </si>
-  <si>
-    <t>任务1019描述</t>
-  </si>
-  <si>
-    <t>任务10020</t>
-  </si>
-  <si>
-    <t>任务1020描述</t>
-  </si>
-  <si>
-    <t>任务10021</t>
-  </si>
-  <si>
-    <t>任务1021描述</t>
-  </si>
-  <si>
-    <t>任务10022</t>
-  </si>
-  <si>
-    <t>任务1022描述</t>
-  </si>
-  <si>
-    <t>任务10023</t>
-  </si>
-  <si>
-    <t>任务1023描述</t>
-  </si>
-  <si>
-    <t>任务10024</t>
-  </si>
-  <si>
-    <t>任务1024描述</t>
-  </si>
-  <si>
-    <t>任务10025</t>
-  </si>
-  <si>
-    <t>任务1025描述</t>
+    <t>subtaskname_10002</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10002</t>
+  </si>
+  <si>
+    <t>subtaskname_10003</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10003</t>
+  </si>
+  <si>
+    <t>subtaskname_10004</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10004</t>
+  </si>
+  <si>
+    <t>subtaskname_10005</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10005</t>
+  </si>
+  <si>
+    <t>subtaskname_10006</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10006</t>
+  </si>
+  <si>
+    <t>subtaskname_10007</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10007</t>
+  </si>
+  <si>
+    <t>subtaskname_10008</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10008</t>
+  </si>
+  <si>
+    <t>subtaskname_10009</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10009</t>
+  </si>
+  <si>
+    <t>subtaskname_10010</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10010</t>
+  </si>
+  <si>
+    <t>subtaskname_10011</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10011</t>
+  </si>
+  <si>
+    <t>subtaskname_10012</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10012</t>
+  </si>
+  <si>
+    <t>subtaskname_10013</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10013</t>
+  </si>
+  <si>
+    <t>subtaskname_10014</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10014</t>
+  </si>
+  <si>
+    <t>subtaskname_10015</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10015</t>
+  </si>
+  <si>
+    <t>subtaskname_10016</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10016</t>
+  </si>
+  <si>
+    <t>subtaskname_10017</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10017</t>
+  </si>
+  <si>
+    <t>subtaskname_10018</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10018</t>
+  </si>
+  <si>
+    <t>subtaskname_10019</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10019</t>
+  </si>
+  <si>
+    <t>subtaskname_10020</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10020</t>
+  </si>
+  <si>
+    <t>subtaskname_10021</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10021</t>
+  </si>
+  <si>
+    <t>subtaskname_10022</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10022</t>
+  </si>
+  <si>
+    <t>subtaskname_10023</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10023</t>
+  </si>
+  <si>
+    <t>subtaskname_10024</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10024</t>
+  </si>
+  <si>
+    <t>subtaskname_10025</t>
+  </si>
+  <si>
+    <t>subtaskdesc_10025</t>
   </si>
 </sst>
 </file>
@@ -1202,14 +1202,14 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="23.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="25" style="4" customWidth="1"/>
     <col min="6" max="6" width="25" style="5" customWidth="1"/>
@@ -1258,7 +1258,9 @@
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">

--- a/Unity/Assets/Config/Excel/SubTaskConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SubTaskConfig.xlsx
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
